--- a/Data/SIMACITY POS+INV - APR 2020.XLSX
+++ b/Data/SIMACITY POS+INV - APR 2020.XLSX
@@ -1,36 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cyrusp\Documents\SiTime Sales Data\Distrib_POS\Simacity\2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JeffreyGeorge\PycharmProjects\SiTimeFileAnalysis\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F22020-7D4C-4BAC-8ACE-73132E6C8342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E064152-8DD3-4CF4-BD70-19BEAE111BB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-18040" yWindow="-18130" windowWidth="17280" windowHeight="15640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="202004POS" sheetId="2" r:id="rId1"/>
     <sheet name="20200430Iventory" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'20200430Iventory'!$A$4:$F$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'20200430Iventory'!$A$1:$F$10</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="50">
-  <si>
-    <t>SiTime Inventory Format</t>
-  </si>
-  <si>
-    <t>Month</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="48">
   <si>
     <t>Distributor</t>
   </si>
@@ -208,39 +202,41 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -251,7 +247,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Tahoma"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -422,7 +418,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -563,7 +559,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -572,12 +567,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -947,75 +936,75 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.1015625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.90625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="9.26953125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="11.89453125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="9.26171875" style="4" customWidth="1"/>
     <col min="3" max="3" width="25" style="4" customWidth="1"/>
-    <col min="4" max="4" width="8.26953125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="11.453125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="7.08984375" style="5" customWidth="1"/>
-    <col min="7" max="7" width="8.453125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="42.90625" style="4" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="7.6328125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="7.36328125" style="4" customWidth="1"/>
-    <col min="11" max="11" width="16.90625" style="4" customWidth="1"/>
-    <col min="12" max="12" width="14.6328125" style="4" customWidth="1"/>
-    <col min="13" max="16384" width="9.08984375" style="4"/>
+    <col min="4" max="4" width="8.26171875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.47265625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="7.1015625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="8.47265625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="42.89453125" style="4" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="7.62890625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="7.3671875" style="4" customWidth="1"/>
+    <col min="11" max="11" width="16.89453125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="14.62890625" style="4" customWidth="1"/>
+    <col min="13" max="16384" width="9.1015625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" ht="42" customHeight="1">
       <c r="A1" s="7" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="F1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="G1" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="I1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>42</v>
-      </c>
       <c r="L1" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
       <c r="A2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>12</v>
-      </c>
       <c r="C2" s="12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D2" s="12">
         <v>1000</v>
@@ -1035,15 +1024,15 @@
       <c r="K2" s="16"/>
       <c r="L2" s="10"/>
     </row>
-    <row r="3" spans="1:12" s="3" customFormat="1" ht="119" customHeight="1">
+    <row r="3" spans="1:12" s="3" customFormat="1" ht="119.05" customHeight="1">
       <c r="A3" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D3" s="19">
         <v>12000</v>
@@ -1065,13 +1054,13 @@
     </row>
     <row r="4" spans="1:12" s="3" customFormat="1" ht="25" customHeight="1">
       <c r="A4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="24" t="s">
-        <v>12</v>
-      </c>
       <c r="C4" s="22" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D4" s="19">
         <v>6000</v>
@@ -1093,13 +1082,13 @@
     </row>
     <row r="5" spans="1:12" ht="25" customHeight="1">
       <c r="A5" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D5" s="28">
         <v>300</v>
@@ -1121,13 +1110,13 @@
     </row>
     <row r="6" spans="1:12" ht="25" customHeight="1">
       <c r="A6" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D6" s="28">
         <v>50</v>
@@ -1149,19 +1138,19 @@
     </row>
     <row r="7" spans="1:12" ht="25" customHeight="1">
       <c r="A7" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="27" t="s">
-        <v>12</v>
-      </c>
       <c r="C7" s="22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D7" s="28">
         <v>3000</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F7" s="30">
         <v>3.6</v>
@@ -1177,13 +1166,13 @@
     </row>
     <row r="8" spans="1:12" ht="25" customHeight="1">
       <c r="A8" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D8" s="28">
         <v>2000</v>
@@ -1205,13 +1194,13 @@
     </row>
     <row r="9" spans="1:12" ht="25" customHeight="1">
       <c r="A9" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D9" s="28">
         <v>12000</v>
@@ -1233,19 +1222,19 @@
     </row>
     <row r="10" spans="1:12" ht="25" customHeight="1">
       <c r="A10" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D10" s="28">
         <v>6000</v>
       </c>
       <c r="E10" s="33" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F10" s="30">
         <v>0.28000000000000003</v>
@@ -1261,19 +1250,19 @@
     </row>
     <row r="11" spans="1:12" ht="25" customHeight="1">
       <c r="A11" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D11" s="35">
         <v>1367</v>
       </c>
       <c r="E11" s="36" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F11" s="37">
         <v>0.308</v>
@@ -1287,21 +1276,21 @@
       <c r="K11" s="50"/>
       <c r="L11" s="51"/>
     </row>
-    <row r="12" spans="1:12" ht="30">
+    <row r="12" spans="1:12" ht="30.6">
       <c r="A12" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C12" s="40" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D12" s="35">
         <v>1105</v>
       </c>
       <c r="E12" s="36" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F12" s="30">
         <v>1.456</v>
@@ -1323,155 +1312,218 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.08984375" customWidth="1"/>
-    <col min="2" max="2" width="24.6328125" customWidth="1"/>
-    <col min="3" max="3" width="8.26953125" style="55" customWidth="1"/>
-    <col min="4" max="4" width="8.7265625" style="56" customWidth="1"/>
-    <col min="5" max="5" width="9.6328125" customWidth="1"/>
-    <col min="6" max="6" width="11.08984375" style="56" customWidth="1"/>
-    <col min="7" max="7" width="9.36328125" customWidth="1"/>
-    <col min="8" max="8" width="11.36328125" customWidth="1"/>
+    <col min="1" max="1" width="8.1015625" customWidth="1"/>
+    <col min="2" max="2" width="24.62890625" customWidth="1"/>
+    <col min="3" max="3" width="8.26171875" style="54" customWidth="1"/>
+    <col min="4" max="4" width="8.734375" style="55" customWidth="1"/>
+    <col min="5" max="5" width="9.62890625" customWidth="1"/>
+    <col min="6" max="6" width="11.1015625" style="55" customWidth="1"/>
+    <col min="7" max="7" width="9.3671875" customWidth="1"/>
+    <col min="8" max="8" width="11.3671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="52" customFormat="1" ht="21" customHeight="1">
-      <c r="A1" s="52" t="s">
+    <row r="1" spans="1:14" s="52" customFormat="1" ht="28" customHeight="1">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="57"/>
-      <c r="D1" s="58"/>
-      <c r="F1" s="58"/>
-    </row>
-    <row r="2" spans="1:14" s="52" customFormat="1" ht="21" customHeight="1">
-      <c r="A2" s="52" t="s">
+      <c r="B1" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="58"/>
-      <c r="F2" s="58"/>
-    </row>
-    <row r="3" spans="1:14" s="52" customFormat="1" ht="21" customHeight="1">
-      <c r="C3" s="57"/>
-      <c r="D3" s="58"/>
-      <c r="F3" s="58"/>
-    </row>
-    <row r="4" spans="1:14" s="53" customFormat="1" ht="28" customHeight="1">
-      <c r="A4" s="59" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="59" t="s">
+      <c r="D1" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="E1" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="60" t="s">
+      <c r="F1" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="59" t="s">
+      <c r="G1" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="60" t="s">
+      <c r="H1" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="61" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="61" t="s">
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+    </row>
+    <row r="2" spans="1:14" s="53" customFormat="1" ht="21" customHeight="1">
+      <c r="A2" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78"/>
-      <c r="K4" s="78"/>
-      <c r="L4" s="78"/>
-      <c r="M4" s="78"/>
-      <c r="N4" s="78"/>
-    </row>
-    <row r="5" spans="1:14" s="54" customFormat="1" ht="21" customHeight="1">
-      <c r="A5" s="44" t="s">
+      <c r="C2" s="59">
+        <v>2000</v>
+      </c>
+      <c r="D2" s="22">
+        <v>0.4</v>
+      </c>
+      <c r="E2" s="60">
+        <v>43951</v>
+      </c>
+      <c r="F2" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="72"/>
+    </row>
+    <row r="3" spans="1:14" s="53" customFormat="1" ht="116.05" customHeight="1">
+      <c r="A3" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="62">
-        <v>2000</v>
-      </c>
-      <c r="D5" s="22">
-        <v>0.4</v>
-      </c>
-      <c r="E5" s="63">
-        <v>43951</v>
-      </c>
-      <c r="F5" s="64" t="s">
+      <c r="C3" s="62">
+        <v>90000</v>
+      </c>
+      <c r="D3" s="22">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="E3" s="60">
+        <v>43916</v>
+      </c>
+      <c r="F3" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="75"/>
-      <c r="J5" s="75"/>
-      <c r="K5" s="75"/>
-      <c r="L5" s="75"/>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-    </row>
-    <row r="6" spans="1:14" s="54" customFormat="1" ht="116" customHeight="1">
-      <c r="A6" s="44" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="18" t="s">
+      <c r="G3" s="44"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="72"/>
+    </row>
+    <row r="4" spans="1:14" s="5" customFormat="1" ht="32.049999999999997" customHeight="1">
+      <c r="A4" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="65">
-        <v>90000</v>
-      </c>
-      <c r="D6" s="22">
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="E6" s="63">
-        <v>43916</v>
-      </c>
-      <c r="F6" s="64" t="s">
+      <c r="C4" s="59">
+        <v>2700</v>
+      </c>
+      <c r="D4" s="22">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="E4" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="44"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="75"/>
-      <c r="J6" s="75"/>
-      <c r="K6" s="75"/>
-      <c r="L6" s="75"/>
-      <c r="M6" s="75"/>
-      <c r="N6" s="75"/>
-    </row>
-    <row r="7" spans="1:14" s="5" customFormat="1" ht="32" customHeight="1">
-      <c r="A7" s="66" t="s">
-        <v>10</v>
+      <c r="F4" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+    </row>
+    <row r="5" spans="1:14" s="5" customFormat="1" ht="32.049999999999997" customHeight="1">
+      <c r="A5" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="59">
+        <v>950</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="65">
+        <v>43913</v>
+      </c>
+      <c r="F5" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+    </row>
+    <row r="6" spans="1:14" s="5" customFormat="1" ht="30" customHeight="1">
+      <c r="A6" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="59">
+        <v>1000</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="65">
+        <v>43949</v>
+      </c>
+      <c r="F6" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+    </row>
+    <row r="7" spans="1:14" s="5" customFormat="1" ht="21" customHeight="1">
+      <c r="A7" s="63" t="s">
+        <v>8</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="62">
-        <v>2700</v>
-      </c>
-      <c r="D7" s="22">
-        <v>0.26400000000000001</v>
-      </c>
-      <c r="E7" s="67" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="64" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
+        <v>21</v>
+      </c>
+      <c r="C7" s="59">
+        <v>8000</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="65">
+        <v>43935</v>
+      </c>
+      <c r="F7" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
       <c r="I7" s="30"/>
       <c r="J7" s="30"/>
       <c r="K7" s="30"/>
@@ -1479,176 +1531,92 @@
       <c r="M7" s="30"/>
       <c r="N7" s="30"/>
     </row>
-    <row r="8" spans="1:14" s="5" customFormat="1" ht="32" customHeight="1">
-      <c r="A8" s="66" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="62">
-        <v>950</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="68">
-        <v>43913</v>
-      </c>
-      <c r="F8" s="64" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="30"/>
-    </row>
-    <row r="9" spans="1:14" s="5" customFormat="1" ht="30" customHeight="1">
-      <c r="A9" s="66" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="62">
-        <v>1000</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="68">
-        <v>43949</v>
-      </c>
-      <c r="F9" s="64" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="30"/>
-    </row>
-    <row r="10" spans="1:14" s="5" customFormat="1" ht="21" customHeight="1">
-      <c r="A10" s="66" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="62">
-        <v>8000</v>
-      </c>
-      <c r="D10" s="22" t="s">
+    <row r="8" spans="1:14" s="53" customFormat="1" ht="21" customHeight="1">
+      <c r="A8" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="68">
-        <v>43935</v>
-      </c>
-      <c r="F10" s="64" t="s">
+      <c r="C8" s="67">
+        <v>3000</v>
+      </c>
+      <c r="D8" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="66"/>
-      <c r="H10" s="66"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30"/>
-    </row>
-    <row r="11" spans="1:14" s="54" customFormat="1" ht="21" customHeight="1">
-      <c r="A11" s="51" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="69" t="s">
+      <c r="E8" s="69">
+        <v>43907</v>
+      </c>
+      <c r="F8" s="70" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="72"/>
+      <c r="M8" s="72"/>
+      <c r="N8" s="72"/>
+    </row>
+    <row r="9" spans="1:14" ht="54" customHeight="1">
+      <c r="A9" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="70">
-        <v>3000</v>
-      </c>
-      <c r="D11" s="71" t="s">
+      <c r="C9" s="18">
+        <v>3633</v>
+      </c>
+      <c r="D9" s="68">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E9" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="72">
-        <v>43907</v>
-      </c>
-      <c r="F11" s="73" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="75"/>
-      <c r="J11" s="75"/>
-      <c r="K11" s="75"/>
-      <c r="L11" s="75"/>
-      <c r="M11" s="75"/>
-      <c r="N11" s="75"/>
-    </row>
-    <row r="12" spans="1:14" ht="54" customHeight="1">
-      <c r="A12" s="51" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="34" t="s">
+      <c r="F9" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="18">
-        <v>3633</v>
-      </c>
-      <c r="D12" s="71">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="E12" s="74" t="s">
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="76"/>
+      <c r="L9" s="76"/>
+      <c r="M9" s="76"/>
+      <c r="N9" s="76"/>
+    </row>
+    <row r="10" spans="1:14" ht="30" customHeight="1">
+      <c r="A10" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="73" t="s">
+      <c r="C10" s="19">
+        <v>895</v>
+      </c>
+      <c r="D10" s="73">
+        <v>1.3</v>
+      </c>
+      <c r="E10" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="75"/>
-      <c r="H12" s="75"/>
-      <c r="I12" s="79"/>
-      <c r="J12" s="79"/>
-      <c r="K12" s="79"/>
-      <c r="L12" s="79"/>
-      <c r="M12" s="79"/>
-      <c r="N12" s="79"/>
-    </row>
-    <row r="13" spans="1:14" ht="30" customHeight="1">
-      <c r="A13" s="44" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="19">
-        <v>895</v>
-      </c>
-      <c r="D13" s="76">
-        <v>1.3</v>
-      </c>
-      <c r="E13" s="77" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="64" t="s">
-        <v>30</v>
-      </c>
-      <c r="G13" s="75"/>
-      <c r="H13" s="75"/>
-      <c r="I13" s="79"/>
-      <c r="J13" s="79"/>
-      <c r="K13" s="79"/>
-      <c r="L13" s="79"/>
-      <c r="M13" s="79"/>
-      <c r="N13" s="79"/>
+      <c r="F10" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="72"/>
+      <c r="H10" s="72"/>
+      <c r="I10" s="76"/>
+      <c r="J10" s="76"/>
+      <c r="K10" s="76"/>
+      <c r="L10" s="76"/>
+      <c r="M10" s="76"/>
+      <c r="N10" s="76"/>
     </row>
   </sheetData>
-  <autoFilter ref="A4:F13" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:F10" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
@@ -1878,18 +1846,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1912,18 +1880,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB9B15D3-8527-457A-B0B4-8412DEA23E99}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E427858C-AFD0-4051-9705-9BF2B714A3E7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB9B15D3-8527-457A-B0B4-8412DEA23E99}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>